--- a/biology/Botanique/Pierre_Quézel/Pierre_Quézel.xlsx
+++ b/biology/Botanique/Pierre_Quézel/Pierre_Quézel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Qu%C3%A9zel</t>
+          <t>Pierre_Quézel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Quézel, né au Vigan le 9 septembre 1926, mort à Roquevaire le 21 octobre 2015 (à 89 ans) est un botaniste et écologue français. Il fut docteur en médecine et docteur ès sciences[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Quézel, né au Vigan le 9 septembre 1926, mort à Roquevaire le 21 octobre 2015 (à 89 ans) est un botaniste et écologue français. Il fut docteur en médecine et docteur ès sciences.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Qu%C3%A9zel</t>
+          <t>Pierre_Quézel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été formé à Montpellier, tout d'abord docteur en médecine, Pierre Quézel devient assistant, maître de conférences puis professeur de botanique à l'université d'Alger. À partir de 1950, il se consacre principalement à l'étude de la flore et de la végétation des hautes montagnes du Maghreb. Il achève en 1963 avec son collègue Sébastien Santa la rédaction de la "Nouvelle Flore d'Algérie" en 2 tomes.
 En 1962, il est nommé à Marseille où il crée, deux ans plus tard, le laboratoire de botanique et écologie méditerranéenne (LBEM) lors de l'ouverture de la faculté de Saint-Jérôme. Avec Juliette Contandriopoulos, Armand Pons, et d'autres collaborateurs, il travaille sur les écosystèmes méditerranéens, en particulier forestiers et montagnards, en France, en Grèce, en Turquie, à Chypre, en Syrie et au Liban, mais aussi sur le Sahara.
-En 1975, il fonde Ecologia Mediterranea, revue scientifique sur l’écologie fondamentale ou appliquée des régions méditerranéennes, à l’exception des milieux marins[2].
-En 1984, il fusionne son laboratoire avec le Laboratoire de botanique historique et palynologie (LBHP) pour fonder l'Institut méditerranéen d'écologie et de paléoécologie (IMEP) qu'il codirige[3].
+En 1975, il fonde Ecologia Mediterranea, revue scientifique sur l’écologie fondamentale ou appliquée des régions méditerranéennes, à l’exception des milieux marins.
+En 1984, il fusionne son laboratoire avec le Laboratoire de botanique historique et palynologie (LBHP) pour fonder l'Institut méditerranéen d'écologie et de paléoécologie (IMEP) qu'il codirige.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Qu%C3%A9zel</t>
+          <t>Pierre_Quézel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres
-Flore de l'Afrique du Nord : Maroc, Algérie, Tunisie, Tripolitaine, Cyrénaïque et Sahara / par le Dr René Maire ; publié par Pierre Quézel.les tomes sont téléchargeables en ligne Pierre Quézel est le coéditeur du tome 5 avec Marcel Guinochet et l'éditeur des tomes 6 à 16.
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Flore de l'Afrique du Nord : Maroc, Algérie, Tunisie, Tripolitaine, Cyrénaïque et Sahara / par le Dr René Maire ; publié par Pierre Quézel.les tomes sont téléchargeables en ligne Pierre Quézel est le coéditeur du tome 5 avec Marcel Guinochet et l'éditeur des tomes 6 à 16.
 Contribution à l'étude phytogéographique et phytosociologique du Grand Atlas calcaire - Rabat : Institut scientifique chérifien, 1953. 1 vol. (60 p.) : graphiques, pl., tableau ; gr. in-8
 Contribution à l'étude de la flore et de la végétation du Hoggar -   Alger : impr. de Imbert, 1954. Gr. in-8°, 164 p., fig., pl., tableaux, errata
 Récoltes botaniques au Tibesti / avec Georges Chevassut. - Office national anti-acridien. Bulletin no 7, juin 1956 - Maison-Carrée, Alger, Institut agricole d'Algérie (Impr. la Typo-litho et J. Carbonel réunies), 1956. In-8° (24 cm), 18 p., pl.
@@ -558,9 +577,43 @@
 Pierre Quézel et Sébastien Santa (préf. Louis Emberger), Nouvelle flore de l’Algérie et des régions désertiques méridionales, t. 1, Paris, CNRS, 1962, 1-558 p. (lire en ligne)
 Pierre Quézel et Sébastien Santa (préf. Louis Emberger), Nouvelle flore de l’Algérie et des régions désertiques méridionales, t. 2, Paris, CNRS, 1963, 571-1170 p. (lire en ligne)
 P. Quézel, Réflexions sur l'évolution de la flore et de la végétation au Maghreb méditerranéen, Paris, Ibis press, 2000, 117 p., 24 cm (ISBN 2-910728-15-3, BNF 37622288)
-P. Quézel et F. Médail, Écologie et biogéographie des forêts du bassin méditerranéen, Paris, Elsevier, 2003, 572 p.  (ISBN 2-84299-451-5)
-Articles
-« Cèdres et cédraies du pourtour méditerranéen : signification bioclimatique et phytogéographique », Forêts méditerranéennes, vol. 19, no 3,‎ 1998, p. 243-260 (lire en ligne)</t>
+P. Quézel et F. Médail, Écologie et biogéographie des forêts du bassin méditerranéen, Paris, Elsevier, 2003, 572 p.  (ISBN 2-84299-451-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Quézel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Qu%C3%A9zel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Cèdres et cédraies du pourtour méditerranéen : signification bioclimatique et phytogéographique », Forêts méditerranéennes, vol. 19, no 3,‎ 1998, p. 243-260 (lire en ligne)</t>
         </is>
       </c>
     </row>
